--- a/artfynd/A 63239-2025 artfynd.xlsx
+++ b/artfynd/A 63239-2025 artfynd.xlsx
@@ -2196,10 +2196,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130827869</v>
+        <v>130827881</v>
       </c>
       <c r="B16" t="n">
-        <v>75217</v>
+        <v>8440</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2207,21 +2207,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6428</v>
+        <v>106554</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>344518</v>
+        <v>344495</v>
       </c>
       <c r="R16" t="n">
-        <v>6433262</v>
+        <v>6433268</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2277,21 +2277,6 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2308,10 +2293,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130827881</v>
+        <v>130827869</v>
       </c>
       <c r="B17" t="n">
-        <v>8440</v>
+        <v>75221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2319,21 +2304,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>106554</v>
+        <v>6428</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2343,10 +2328,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>344495</v>
+        <v>344518</v>
       </c>
       <c r="R17" t="n">
-        <v>6433268</v>
+        <v>6433262</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2389,6 +2374,21 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2517,10 +2517,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130827872</v>
+        <v>130827874</v>
       </c>
       <c r="B19" t="n">
-        <v>58252</v>
+        <v>75349</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2528,21 +2528,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>103015</v>
+        <v>6426</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Regulus regulus</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>344461</v>
+        <v>344473</v>
       </c>
       <c r="R19" t="n">
-        <v>6433331</v>
+        <v>6433342</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2598,6 +2598,21 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2614,10 +2629,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130827874</v>
+        <v>130827872</v>
       </c>
       <c r="B20" t="n">
-        <v>75345</v>
+        <v>58256</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2625,21 +2640,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6426</v>
+        <v>103015</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Regulus regulus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2649,10 +2664,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>344473</v>
+        <v>344461</v>
       </c>
       <c r="R20" t="n">
-        <v>6433342</v>
+        <v>6433331</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2695,21 +2710,6 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2729,7 +2729,7 @@
         <v>130827867</v>
       </c>
       <c r="B21" t="n">
-        <v>97624</v>
+        <v>97628</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>130827877</v>
       </c>
       <c r="B22" t="n">
-        <v>83202</v>
+        <v>83206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>130827875</v>
       </c>
       <c r="B23" t="n">
-        <v>75345</v>
+        <v>75349</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3047,10 +3047,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130827882</v>
+        <v>130827870</v>
       </c>
       <c r="B24" t="n">
-        <v>8440</v>
+        <v>5197</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3058,21 +3058,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>106554</v>
+        <v>105930</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3082,10 +3082,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>344503</v>
+        <v>344458</v>
       </c>
       <c r="R24" t="n">
-        <v>6433291</v>
+        <v>6433350</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3128,6 +3128,21 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
@@ -3144,10 +3159,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130827870</v>
+        <v>130827882</v>
       </c>
       <c r="B25" t="n">
-        <v>5197</v>
+        <v>8440</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3155,21 +3170,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>105930</v>
+        <v>106554</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3179,10 +3194,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>344458</v>
+        <v>344503</v>
       </c>
       <c r="R25" t="n">
-        <v>6433350</v>
+        <v>6433291</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3225,21 +3240,6 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3256,10 +3256,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130827876</v>
+        <v>130827873</v>
       </c>
       <c r="B26" t="n">
-        <v>75345</v>
+        <v>83208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3267,21 +3267,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6426</v>
+        <v>306</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3291,10 +3291,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>344449</v>
+        <v>344451</v>
       </c>
       <c r="R26" t="n">
-        <v>6433318</v>
+        <v>6433334</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3368,10 +3368,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130827873</v>
+        <v>130827876</v>
       </c>
       <c r="B27" t="n">
-        <v>83204</v>
+        <v>75349</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3379,21 +3379,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>306</v>
+        <v>6426</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>344451</v>
+        <v>344449</v>
       </c>
       <c r="R27" t="n">
-        <v>6433334</v>
+        <v>6433318</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3483,7 +3483,7 @@
         <v>130918028</v>
       </c>
       <c r="B28" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>130917555</v>
       </c>
       <c r="B29" t="n">
-        <v>58039</v>
+        <v>58043</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>

--- a/artfynd/A 63239-2025 artfynd.xlsx
+++ b/artfynd/A 63239-2025 artfynd.xlsx
@@ -3256,10 +3256,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130827873</v>
+        <v>130827876</v>
       </c>
       <c r="B26" t="n">
-        <v>83208</v>
+        <v>75349</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3267,21 +3267,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>306</v>
+        <v>6426</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3291,10 +3291,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>344451</v>
+        <v>344449</v>
       </c>
       <c r="R26" t="n">
-        <v>6433334</v>
+        <v>6433318</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3368,10 +3368,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130827876</v>
+        <v>130827873</v>
       </c>
       <c r="B27" t="n">
-        <v>75349</v>
+        <v>83208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3379,21 +3379,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6426</v>
+        <v>306</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>344449</v>
+        <v>344451</v>
       </c>
       <c r="R27" t="n">
-        <v>6433318</v>
+        <v>6433334</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>

--- a/artfynd/A 63239-2025 artfynd.xlsx
+++ b/artfynd/A 63239-2025 artfynd.xlsx
@@ -2196,10 +2196,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130827881</v>
+        <v>130827869</v>
       </c>
       <c r="B16" t="n">
-        <v>8440</v>
+        <v>75221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2207,21 +2207,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>106554</v>
+        <v>6428</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>344495</v>
+        <v>344518</v>
       </c>
       <c r="R16" t="n">
-        <v>6433268</v>
+        <v>6433262</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2277,6 +2277,21 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2293,10 +2308,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130827869</v>
+        <v>130827881</v>
       </c>
       <c r="B17" t="n">
-        <v>75221</v>
+        <v>8440</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2304,21 +2319,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6428</v>
+        <v>106554</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2328,10 +2343,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>344518</v>
+        <v>344495</v>
       </c>
       <c r="R17" t="n">
-        <v>6433262</v>
+        <v>6433268</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2374,21 +2389,6 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -3256,10 +3256,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130827876</v>
+        <v>130827873</v>
       </c>
       <c r="B26" t="n">
-        <v>75349</v>
+        <v>83208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3267,21 +3267,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6426</v>
+        <v>306</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3291,10 +3291,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>344449</v>
+        <v>344451</v>
       </c>
       <c r="R26" t="n">
-        <v>6433318</v>
+        <v>6433334</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3368,10 +3368,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130827873</v>
+        <v>130827876</v>
       </c>
       <c r="B27" t="n">
-        <v>83208</v>
+        <v>75349</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3379,21 +3379,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>306</v>
+        <v>6426</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>344451</v>
+        <v>344449</v>
       </c>
       <c r="R27" t="n">
-        <v>6433334</v>
+        <v>6433318</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>

--- a/artfynd/A 63239-2025 artfynd.xlsx
+++ b/artfynd/A 63239-2025 artfynd.xlsx
@@ -2196,10 +2196,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130827869</v>
+        <v>130827881</v>
       </c>
       <c r="B16" t="n">
-        <v>75221</v>
+        <v>8440</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2207,21 +2207,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6428</v>
+        <v>106554</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>344518</v>
+        <v>344495</v>
       </c>
       <c r="R16" t="n">
-        <v>6433262</v>
+        <v>6433268</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2277,21 +2277,6 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2308,10 +2293,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130827881</v>
+        <v>130827869</v>
       </c>
       <c r="B17" t="n">
-        <v>8440</v>
+        <v>75221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2319,21 +2304,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>106554</v>
+        <v>6428</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2343,10 +2328,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>344495</v>
+        <v>344518</v>
       </c>
       <c r="R17" t="n">
-        <v>6433268</v>
+        <v>6433262</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2389,6 +2374,21 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2517,10 +2517,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130827874</v>
+        <v>130827872</v>
       </c>
       <c r="B19" t="n">
-        <v>75349</v>
+        <v>58256</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2528,21 +2528,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6426</v>
+        <v>103015</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Regulus regulus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>344473</v>
+        <v>344461</v>
       </c>
       <c r="R19" t="n">
-        <v>6433342</v>
+        <v>6433331</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2598,21 +2598,6 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2629,10 +2614,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130827872</v>
+        <v>130827874</v>
       </c>
       <c r="B20" t="n">
-        <v>58256</v>
+        <v>75349</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2640,21 +2625,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>103015</v>
+        <v>6426</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Regulus regulus</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2664,10 +2649,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>344461</v>
+        <v>344473</v>
       </c>
       <c r="R20" t="n">
-        <v>6433331</v>
+        <v>6433342</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2710,6 +2695,21 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">

--- a/artfynd/A 63239-2025 artfynd.xlsx
+++ b/artfynd/A 63239-2025 artfynd.xlsx
@@ -3047,10 +3047,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130827870</v>
+        <v>130827882</v>
       </c>
       <c r="B24" t="n">
-        <v>5197</v>
+        <v>8440</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3058,21 +3058,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>105930</v>
+        <v>106554</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3082,10 +3082,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>344458</v>
+        <v>344503</v>
       </c>
       <c r="R24" t="n">
-        <v>6433350</v>
+        <v>6433291</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3128,21 +3128,6 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
@@ -3159,10 +3144,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130827882</v>
+        <v>130827870</v>
       </c>
       <c r="B25" t="n">
-        <v>8440</v>
+        <v>5197</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3170,21 +3155,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>106554</v>
+        <v>105930</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3194,10 +3179,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>344503</v>
+        <v>344458</v>
       </c>
       <c r="R25" t="n">
-        <v>6433291</v>
+        <v>6433350</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3240,6 +3225,21 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">

--- a/artfynd/A 63239-2025 artfynd.xlsx
+++ b/artfynd/A 63239-2025 artfynd.xlsx
@@ -2196,10 +2196,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130827881</v>
+        <v>130827869</v>
       </c>
       <c r="B16" t="n">
-        <v>8440</v>
+        <v>75221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2207,21 +2207,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>106554</v>
+        <v>6428</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>344495</v>
+        <v>344518</v>
       </c>
       <c r="R16" t="n">
-        <v>6433268</v>
+        <v>6433262</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2277,6 +2277,21 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2293,10 +2308,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130827869</v>
+        <v>130827881</v>
       </c>
       <c r="B17" t="n">
-        <v>75221</v>
+        <v>8440</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2304,21 +2319,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6428</v>
+        <v>106554</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2328,10 +2343,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>344518</v>
+        <v>344495</v>
       </c>
       <c r="R17" t="n">
-        <v>6433262</v>
+        <v>6433268</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2374,21 +2389,6 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2517,10 +2517,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130827872</v>
+        <v>130827874</v>
       </c>
       <c r="B19" t="n">
-        <v>58256</v>
+        <v>75349</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2528,21 +2528,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>103015</v>
+        <v>6426</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Regulus regulus</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>344461</v>
+        <v>344473</v>
       </c>
       <c r="R19" t="n">
-        <v>6433331</v>
+        <v>6433342</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2598,6 +2598,21 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2614,10 +2629,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130827874</v>
+        <v>130827872</v>
       </c>
       <c r="B20" t="n">
-        <v>75349</v>
+        <v>58256</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2625,21 +2640,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6426</v>
+        <v>103015</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Regulus regulus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2649,10 +2664,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>344473</v>
+        <v>344461</v>
       </c>
       <c r="R20" t="n">
-        <v>6433342</v>
+        <v>6433331</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2695,21 +2710,6 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -3047,10 +3047,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130827882</v>
+        <v>130827870</v>
       </c>
       <c r="B24" t="n">
-        <v>8440</v>
+        <v>5197</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3058,21 +3058,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>106554</v>
+        <v>105930</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3082,10 +3082,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>344503</v>
+        <v>344458</v>
       </c>
       <c r="R24" t="n">
-        <v>6433291</v>
+        <v>6433350</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3128,6 +3128,21 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
@@ -3144,10 +3159,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130827870</v>
+        <v>130827882</v>
       </c>
       <c r="B25" t="n">
-        <v>5197</v>
+        <v>8440</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3155,21 +3170,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>105930</v>
+        <v>106554</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3179,10 +3194,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>344458</v>
+        <v>344503</v>
       </c>
       <c r="R25" t="n">
-        <v>6433350</v>
+        <v>6433291</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3225,21 +3240,6 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">

--- a/artfynd/A 63239-2025 artfynd.xlsx
+++ b/artfynd/A 63239-2025 artfynd.xlsx
@@ -2196,10 +2196,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130827869</v>
+        <v>130827881</v>
       </c>
       <c r="B16" t="n">
-        <v>75221</v>
+        <v>8440</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2207,21 +2207,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6428</v>
+        <v>106554</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>344518</v>
+        <v>344495</v>
       </c>
       <c r="R16" t="n">
-        <v>6433262</v>
+        <v>6433268</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2277,21 +2277,6 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2308,10 +2293,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130827881</v>
+        <v>130827869</v>
       </c>
       <c r="B17" t="n">
-        <v>8440</v>
+        <v>75222</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2319,21 +2304,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>106554</v>
+        <v>6428</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2343,10 +2328,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>344495</v>
+        <v>344518</v>
       </c>
       <c r="R17" t="n">
-        <v>6433268</v>
+        <v>6433262</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2389,6 +2374,21 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2517,10 +2517,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130827874</v>
+        <v>130827872</v>
       </c>
       <c r="B19" t="n">
-        <v>75349</v>
+        <v>58256</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2528,21 +2528,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6426</v>
+        <v>103015</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Regulus regulus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>344473</v>
+        <v>344461</v>
       </c>
       <c r="R19" t="n">
-        <v>6433342</v>
+        <v>6433331</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2598,21 +2598,6 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2629,10 +2614,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130827872</v>
+        <v>130827874</v>
       </c>
       <c r="B20" t="n">
-        <v>58256</v>
+        <v>75350</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2640,21 +2625,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>103015</v>
+        <v>6426</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Regulus regulus</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2664,10 +2649,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>344461</v>
+        <v>344473</v>
       </c>
       <c r="R20" t="n">
-        <v>6433331</v>
+        <v>6433342</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2710,6 +2695,21 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2729,7 +2729,7 @@
         <v>130827867</v>
       </c>
       <c r="B21" t="n">
-        <v>97628</v>
+        <v>97629</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>130827877</v>
       </c>
       <c r="B22" t="n">
-        <v>83206</v>
+        <v>83207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>130827875</v>
       </c>
       <c r="B23" t="n">
-        <v>75349</v>
+        <v>75350</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3256,10 +3256,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130827876</v>
+        <v>130827873</v>
       </c>
       <c r="B26" t="n">
-        <v>75349</v>
+        <v>83209</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3267,21 +3267,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6426</v>
+        <v>306</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3291,10 +3291,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>344449</v>
+        <v>344451</v>
       </c>
       <c r="R26" t="n">
-        <v>6433318</v>
+        <v>6433334</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3368,10 +3368,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130827873</v>
+        <v>130827876</v>
       </c>
       <c r="B27" t="n">
-        <v>83208</v>
+        <v>75350</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3379,21 +3379,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>306</v>
+        <v>6426</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>344451</v>
+        <v>344449</v>
       </c>
       <c r="R27" t="n">
-        <v>6433334</v>
+        <v>6433318</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>

--- a/artfynd/A 63239-2025 artfynd.xlsx
+++ b/artfynd/A 63239-2025 artfynd.xlsx
@@ -2196,10 +2196,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130827881</v>
+        <v>130827869</v>
       </c>
       <c r="B16" t="n">
-        <v>8440</v>
+        <v>75222</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2207,21 +2207,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>106554</v>
+        <v>6428</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>344495</v>
+        <v>344518</v>
       </c>
       <c r="R16" t="n">
-        <v>6433268</v>
+        <v>6433262</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2277,6 +2277,21 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2293,10 +2308,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130827869</v>
+        <v>130827881</v>
       </c>
       <c r="B17" t="n">
-        <v>75222</v>
+        <v>8440</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2304,21 +2319,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6428</v>
+        <v>106554</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2328,10 +2343,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>344518</v>
+        <v>344495</v>
       </c>
       <c r="R17" t="n">
-        <v>6433262</v>
+        <v>6433268</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2374,21 +2389,6 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2517,10 +2517,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130827872</v>
+        <v>130827874</v>
       </c>
       <c r="B19" t="n">
-        <v>58256</v>
+        <v>75350</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2528,21 +2528,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>103015</v>
+        <v>6426</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Regulus regulus</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>344461</v>
+        <v>344473</v>
       </c>
       <c r="R19" t="n">
-        <v>6433331</v>
+        <v>6433342</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2598,6 +2598,21 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2614,10 +2629,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130827874</v>
+        <v>130827872</v>
       </c>
       <c r="B20" t="n">
-        <v>75350</v>
+        <v>58256</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2625,21 +2640,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6426</v>
+        <v>103015</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Regulus regulus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2649,10 +2664,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>344473</v>
+        <v>344461</v>
       </c>
       <c r="R20" t="n">
-        <v>6433342</v>
+        <v>6433331</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2695,21 +2710,6 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -3256,10 +3256,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130827873</v>
+        <v>130827876</v>
       </c>
       <c r="B26" t="n">
-        <v>83209</v>
+        <v>75350</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3267,21 +3267,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>306</v>
+        <v>6426</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3291,10 +3291,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>344451</v>
+        <v>344449</v>
       </c>
       <c r="R26" t="n">
-        <v>6433334</v>
+        <v>6433318</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3368,10 +3368,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130827876</v>
+        <v>130827873</v>
       </c>
       <c r="B27" t="n">
-        <v>75350</v>
+        <v>83209</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3379,21 +3379,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6426</v>
+        <v>306</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>344449</v>
+        <v>344451</v>
       </c>
       <c r="R27" t="n">
-        <v>6433318</v>
+        <v>6433334</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
